--- a/src/main/resources/data/puzzles.xlsx
+++ b/src/main/resources/data/puzzles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaahyeonseo/Desktop/Spring/Bjjm/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaahyeonseo/Desktop/Spring/Bjjm/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8AC6DF-FDFE-AF4F-A66A-AF42F17E5FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2BA5F8-FAFC-154B-BBBC-EBECF63494F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="760" windowWidth="20500" windowHeight="17120" xr2:uid="{903AB1A2-3C31-7F48-92BD-AE98F8B9CE97}"/>
+    <workbookView xWindow="18240" yWindow="760" windowWidth="11020" windowHeight="17120" xr2:uid="{903AB1A2-3C31-7F48-92BD-AE98F8B9CE97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,14 +489,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3611A-FE35-6C4E-BFAF-FA05DBB45A5B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -511,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -519,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -527,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -535,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -543,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -551,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -559,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -567,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -575,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -583,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -591,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -599,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -607,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -615,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -623,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -631,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
